--- a/CheckList/Weekly/Weekly Check list.xlsx
+++ b/CheckList/Weekly/Weekly Check list.xlsx
@@ -3,49 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3531F8-1148-4DEE-AEAC-0E0C5898A8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEA4F5F-2064-4EA7-9659-439E033E995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="2" r:id="rId1"/>
-    <sheet name="Monthly" sheetId="3" r:id="rId2"/>
-    <sheet name="Exam Link" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Br.Naiyar</t>
-  </si>
-  <si>
-    <t>Exam anticipated list to send to Ashiq Br.</t>
-  </si>
-  <si>
     <t>Responsible</t>
   </si>
   <si>
     <t>Br.Murtuza</t>
   </si>
   <si>
-    <t>Planning and Achievement</t>
-  </si>
-  <si>
-    <t>Br.Taha</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t xml:space="preserve">Database of Email Addresses of all Sec Brs to be maintained </t>
-  </si>
-  <si>
     <t>Conduction data every Week - Short Message in Grp (Class Yes / No)</t>
   </si>
   <si>
@@ -61,60 +44,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>C Form Entry Status in Software</t>
-  </si>
-  <si>
-    <t>Intreme Report - Share with Br.Ashiq</t>
-  </si>
-  <si>
-    <t>Status of Pending Exam Report - Share with Br.Ashiq</t>
-  </si>
-  <si>
-    <t>Class of the Month -  share to Br.Ashiq</t>
-  </si>
-  <si>
-    <t>List of Ir-regular Student - Monthly Report share in Group</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Exam Name</t>
-  </si>
-  <si>
-    <t>Exam Link</t>
-  </si>
-  <si>
-    <t>AUH1</t>
-  </si>
-  <si>
-    <t>Tauheed - CH2</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/forms/d/e/1FAIpQLSeiR7CnUhYgs1aQZ5jZ8w2lvNjrtKbNCdOJv1KYWMmagUdOTA/viewform?usp=sharing</t>
-  </si>
-  <si>
-    <t>Tauheed - CH1</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/forms/d/e/1FAIpQLSfZuj4T830QW3YkQn1xh7iBMrFZG64s_-Z2Kv3EvMKah4iCmw/viewform?usp=sharing</t>
-  </si>
-  <si>
-    <t>Tauheed - CH3</t>
-  </si>
-  <si>
-    <t>Nahv-1</t>
-  </si>
-  <si>
-    <t>TI-3A</t>
-  </si>
-  <si>
-    <t>DS3</t>
-  </si>
-  <si>
-    <t>Tauheed - CH6</t>
-  </si>
-  <si>
     <t>C Form Followup</t>
   </si>
   <si>
@@ -127,19 +56,7 @@
     <t>DS5 - Br.Hasan</t>
   </si>
   <si>
-    <t>InProgress</t>
-  </si>
-  <si>
     <t>Ir-regular student Followup (as per MOM)</t>
-  </si>
-  <si>
-    <t>Book Collection Discussion</t>
-  </si>
-  <si>
-    <t>Committee</t>
-  </si>
-  <si>
-    <t>Status of Pending Exam Followup with Class Nazim (as per MOM)</t>
   </si>
   <si>
     <t>Nov 2024</t>
@@ -158,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,14 +87,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -441,56 +350,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -498,24 +373,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -818,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9A54F7-5F10-4BDD-BC82-C5E119ED72EB}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,236 +730,247 @@
     <col min="9" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.453125" customWidth="1"/>
+    <col min="17" max="17" width="7.7265625" customWidth="1"/>
+    <col min="18" max="19" width="6.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="14"/>
+      <c r="C1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="5">
         <v>45543</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="5">
         <v>45550</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="5">
         <v>45557</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="5">
         <v>45566</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="5">
         <v>45574</v>
       </c>
-      <c r="I2" s="17">
-        <v>45580</v>
-      </c>
-      <c r="J2" s="17">
-        <v>45587</v>
-      </c>
-      <c r="K2" s="17">
-        <v>45594</v>
-      </c>
-      <c r="L2" s="17">
-        <v>45601</v>
-      </c>
-      <c r="M2" s="17">
-        <v>45608</v>
-      </c>
-      <c r="N2" s="17">
-        <v>45615</v>
-      </c>
-      <c r="O2" s="17">
-        <v>45622</v>
-      </c>
-      <c r="P2" s="17">
-        <v>45629</v>
-      </c>
-      <c r="Q2" s="17">
-        <v>45636</v>
-      </c>
-      <c r="R2" s="17">
-        <v>45643</v>
-      </c>
-      <c r="S2" s="17">
-        <v>45650</v>
-      </c>
-      <c r="T2" s="18">
-        <v>45657</v>
+      <c r="I2" s="5">
+        <v>45581</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45588</v>
+      </c>
+      <c r="K2" s="5">
+        <v>45595</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45602</v>
+      </c>
+      <c r="M2" s="5">
+        <v>45609</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45616</v>
+      </c>
+      <c r="O2" s="5">
+        <v>45623</v>
+      </c>
+      <c r="P2" s="5">
+        <v>45630</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>45637</v>
+      </c>
+      <c r="R2" s="5">
+        <v>45644</v>
+      </c>
+      <c r="S2" s="6">
+        <v>45651</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
+    <row r="3" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="23"/>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
+    <row r="4" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="9"/>
+      <c r="P4" s="3"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="25"/>
+      <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
+    <row r="5" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="9"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="25"/>
+      <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
+    <row r="6" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="9"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="25"/>
+      <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27">
+    <row r="7" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1079,35 +985,40 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="25"/>
+      <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="6" t="s">
-        <v>33</v>
+    <row r="8" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1116,32 +1027,37 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="25"/>
+      <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="6" t="s">
-        <v>34</v>
+    <row r="9" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1150,32 +1066,37 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="25"/>
+      <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
+    <row r="10" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1184,384 +1105,61 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="25"/>
+      <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:20" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="28">
+    <row r="11" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="30"/>
+      <c r="C11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P1:S1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C0B06F-612B-4AE1-B42C-D938E800923A}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="55.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5">
-        <v>45566</v>
-      </c>
-      <c r="E1" s="5">
-        <v>45601</v>
-      </c>
-      <c r="F1" s="5">
-        <v>45629</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1FBDDD-ADDF-4C9E-96F6-3D72583016FA}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="113.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{90835A8E-150C-4866-8F39-6722FC3F07C0}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{F93D0A3E-BDD1-4787-8C6E-10B549CD4B33}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CheckList/Weekly/Weekly Check list.xlsx
+++ b/CheckList/Weekly/Weekly Check list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEA4F5F-2064-4EA7-9659-439E033E995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3FA067-07D6-4984-92F5-7FF5B986FF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
   <si>
     <t>Description</t>
   </si>
@@ -716,7 +716,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -877,7 +877,9 @@
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -916,7 +918,9 @@
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -955,7 +959,9 @@
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1019,7 +1025,9 @@
       <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1058,7 +1066,9 @@
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1097,7 +1107,9 @@
       <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1138,7 +1150,9 @@
       <c r="J11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
